--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value788.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value788.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.528394231505549</v>
+        <v>1.790418148040771</v>
       </c>
       <c r="B1">
-        <v>3.543876430753153</v>
+        <v>4.27653980255127</v>
       </c>
       <c r="C1">
-        <v>2.995043168134379</v>
+        <v>1.646914839744568</v>
       </c>
       <c r="D1">
-        <v>2.130356915690304</v>
+        <v>0.8684206604957581</v>
       </c>
       <c r="E1">
-        <v>1.220750872941885</v>
+        <v>0.4686254262924194</v>
       </c>
     </row>
   </sheetData>
